--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3612551.97660978</v>
+        <v>3610007.383915497</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7625610.529198848</v>
+        <v>7625610.529198847</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>109.9645463939854</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>68.11693918766126</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
-        <v>120.5189124591201</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>130.494984023001</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425949</v>
+        <v>23.94240680425872</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>152.9301325040282</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>108.3453157090853</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246135</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937526</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074816</v>
+        <v>44.33060630074776</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>175.8291517265817</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>29.43305940535071</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>216.1480668197323</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>113.3237299842552</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60.64560821255617</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>118.7165047312521</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>78.16360657708299</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,10 +1218,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>163.7219740584536</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>62.82850251969731</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.91706584267773</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>185.9158911817642</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>11.56087338713362</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>32.57570591153918</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>39.17658763086867</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.45472478220964</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>117.6579322793575</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>73.78417491007316</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>40.37234576591481</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,13 +3235,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>106.8299898147636</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>167.7926244180741</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3712,13 +3712,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2645540643926</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>45.97180554613971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4183,13 +4183,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>113.9549918517058</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.59746731481</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="C2" t="n">
-        <v>224.59746731481</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="D2" t="n">
-        <v>224.59746731481</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>126.0773463611696</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262253</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262253</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262253</v>
+        <v>322.4426321268576</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262253</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097405</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097405</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="X2" t="n">
-        <v>414.0172523312948</v>
+        <v>133.0228471103731</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.59746731481</v>
+        <v>133.0228471103731</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264279</v>
+        <v>676.9378076264268</v>
       </c>
       <c r="S3" t="n">
-        <v>555.2015324151955</v>
+        <v>525.6547321810231</v>
       </c>
       <c r="T3" t="n">
-        <v>555.2015324151955</v>
+        <v>525.6547321810231</v>
       </c>
       <c r="U3" t="n">
-        <v>555.2015324151955</v>
+        <v>525.6547321810231</v>
       </c>
       <c r="V3" t="n">
-        <v>365.7817473987108</v>
+        <v>525.6547321810231</v>
       </c>
       <c r="W3" t="n">
-        <v>365.7817473987108</v>
+        <v>336.2349471645385</v>
       </c>
       <c r="X3" t="n">
-        <v>365.7817473987108</v>
+        <v>146.815162148054</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>843.7078548501138</v>
+        <v>439.66745080971</v>
       </c>
       <c r="C5" t="n">
-        <v>843.7078548501138</v>
+        <v>439.66745080971</v>
       </c>
       <c r="D5" t="n">
-        <v>843.7078548501138</v>
+        <v>439.66745080971</v>
       </c>
       <c r="E5" t="n">
-        <v>457.9196022518695</v>
+        <v>53.87919821146571</v>
       </c>
       <c r="F5" t="n">
-        <v>450.974101502666</v>
+        <v>46.93369746226223</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746963</v>
+        <v>277.9807166746988</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030741</v>
+        <v>521.2049416030782</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709145</v>
+        <v>823.5081935709211</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582747</v>
+        <v>1135.316836582756</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079234</v>
+        <v>1416.413635079245</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332751</v>
+        <v>1621.822248332764</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837877</v>
+        <v>1727.902815837891</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540645</v>
+        <v>1703.71856654066</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726300993</v>
+        <v>1562.810726301008</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.951391437428</v>
+        <v>1562.810726301008</v>
       </c>
       <c r="U5" t="n">
-        <v>1350.951391437428</v>
+        <v>1309.172761972372</v>
       </c>
       <c r="V5" t="n">
-        <v>1350.951391437428</v>
+        <v>1309.172761972372</v>
       </c>
       <c r="W5" t="n">
-        <v>998.182736167314</v>
+        <v>1309.172761972372</v>
       </c>
       <c r="X5" t="n">
-        <v>843.7078548501138</v>
+        <v>935.7070037112917</v>
       </c>
       <c r="Y5" t="n">
-        <v>843.7078548501138</v>
+        <v>826.2672908738318</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618.6153180014053</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="C6" t="n">
-        <v>618.6153180014053</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="D6" t="n">
-        <v>618.6153180014053</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>459.3778629959497</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="F6" t="n">
-        <v>312.8433050228347</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367945</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814669</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787487</v>
+        <v>61.66788464787577</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806053</v>
+        <v>186.1577239806073</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189962</v>
+        <v>399.8722171189996</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223476</v>
+        <v>668.6238185223526</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352446</v>
+        <v>958.8971200352514</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228315</v>
+        <v>1202.220686228323</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639504</v>
+        <v>1378.176233639513</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906544</v>
+        <v>1445.878660906555</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703768</v>
+        <v>1401.100270703779</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699364</v>
+        <v>1258.309378699375</v>
       </c>
       <c r="T6" t="n">
-        <v>1258.309378699364</v>
+        <v>1062.768760419129</v>
       </c>
       <c r="U6" t="n">
-        <v>1258.309378699364</v>
+        <v>834.6536183746858</v>
       </c>
       <c r="V6" t="n">
-        <v>1080.70417493514</v>
+        <v>599.5015101429431</v>
       </c>
       <c r="W6" t="n">
-        <v>826.4668182069381</v>
+        <v>569.7711471072353</v>
       </c>
       <c r="X6" t="n">
-        <v>618.6153180014053</v>
+        <v>569.7711471072353</v>
       </c>
       <c r="Y6" t="n">
-        <v>618.6153180014053</v>
+        <v>362.0108483422813</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574644</v>
+        <v>64.24066662574734</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584107</v>
+        <v>132.1299861584124</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347959</v>
+        <v>206.9680378347985</v>
       </c>
       <c r="N7" t="n">
-        <v>287.884133819535</v>
+        <v>287.8841338195383</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934696</v>
+        <v>342.3101561934737</v>
       </c>
       <c r="P7" t="n">
-        <v>369.819049585798</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.819049585798</v>
+        <v>369.8190495858028</v>
       </c>
       <c r="R7" t="n">
-        <v>369.819049585798</v>
+        <v>252.88943694275</v>
       </c>
       <c r="S7" t="n">
-        <v>369.819049585798</v>
+        <v>252.88943694275</v>
       </c>
       <c r="T7" t="n">
-        <v>369.819049585798</v>
+        <v>252.88943694275</v>
       </c>
       <c r="U7" t="n">
-        <v>369.819049585798</v>
+        <v>252.88943694275</v>
       </c>
       <c r="V7" t="n">
-        <v>369.819049585798</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="W7" t="n">
-        <v>369.819049585798</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="X7" t="n">
-        <v>255.3506354602876</v>
+        <v>34.55805631675781</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675754</v>
+        <v>34.55805631675781</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1704.678664719077</v>
+        <v>588.304919212072</v>
       </c>
       <c r="C8" t="n">
-        <v>1704.678664719077</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="D8" t="n">
-        <v>1346.412966112327</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="E8" t="n">
-        <v>960.6247135140825</v>
+        <v>141.2584765001347</v>
       </c>
       <c r="F8" t="n">
-        <v>549.638808724475</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
@@ -4805,16 +4805,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4835,19 +4835,19 @@
         <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>1704.678664719077</v>
+        <v>1704.678664719078</v>
       </c>
       <c r="V8" t="n">
-        <v>1704.678664719077</v>
+        <v>1704.678664719078</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.678664719077</v>
+        <v>1351.910009448964</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.678664719077</v>
+        <v>978.4442511878838</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.678664719077</v>
+        <v>588.304919212072</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.0707711116521</v>
+        <v>503.6326292653554</v>
       </c>
       <c r="C9" t="n">
-        <v>671.6177418305251</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D9" t="n">
-        <v>522.6833321692739</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E9" t="n">
-        <v>363.4458771638183</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F9" t="n">
-        <v>216.9113191907033</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T9" t="n">
-        <v>1429.897907102207</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U9" t="n">
-        <v>1429.897907102207</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="V9" t="n">
-        <v>1429.897907102207</v>
+        <v>1197.399957077438</v>
       </c>
       <c r="W9" t="n">
-        <v>1429.897907102207</v>
+        <v>943.1626003492363</v>
       </c>
       <c r="X9" t="n">
-        <v>1222.046406896674</v>
+        <v>735.3111001437035</v>
       </c>
       <c r="Y9" t="n">
-        <v>1014.28610813172</v>
+        <v>671.8479662854234</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
         <v>43.36919653809306</v>
@@ -4963,7 +4963,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4981,31 +4981,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>298.2869409356784</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>298.2869409356784</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>298.2869409356784</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V10" t="n">
-        <v>298.2869409356784</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W10" t="n">
-        <v>298.2869409356784</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X10" t="n">
-        <v>298.2869409356784</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>298.2869409356784</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5133,10 +5133,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768874</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,43 +5282,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>962.6357307816187</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611858</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5829,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,22 +6066,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>527.7722521572603</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>379.8591585748671</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397182</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.432392194325</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.342122433612</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2527.96527192868</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
         <v>175.9033664000583</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.605706616408</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.188536579448</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.19898568143</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>139.234765840794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>139.234765840794</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2272.00829921169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2052.406834234631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1846595309963</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>943.510265746755</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373307</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>633.4413279836774</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>464.5051450557705</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5051450557705</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1807.973581098312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1553.289092892425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1263.871922855465</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.882371957447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>815.0897928139171</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>915.1035305473698</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>746.1673476194629</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>596.0507082071272</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>596.0507082071272</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>449.1607607092168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>281.9646614240967</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2528302662948</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.811327457202</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2045.209862480144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>186.5330677581685</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.1299285698852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>27.76311574357379</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>74.83129810813919</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>211.7652975579132</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>74.196296186881</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>134.8730892594353</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29403077242583</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,13 +26071,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>67.07129414993878</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>660355.9349123004</v>
+        <v>660355.9349123006</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>660355.9349123006</v>
+        <v>660355.9349123004</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710682</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710697</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253103</v>
+        <v>270592.3620253147</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231949</v>
+        <v>115410.0540231912</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881919</v>
+        <v>62913.63765882021</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.2536219754</v>
+        <v>27875.25362197448</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263468</v>
+        <v>206604.4229263458</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26427,37 +26427,37 @@
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.64000687968</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687968</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687969</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687972</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687968</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687969</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687969</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936803</v>
+        <v>76435.73471936831</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146889.5863955206</v>
+        <v>-146889.5863955199</v>
       </c>
       <c r="C6" t="n">
-        <v>226357.1617000437</v>
+        <v>226357.161700041</v>
       </c>
       <c r="D6" t="n">
-        <v>405177.5554031047</v>
+        <v>405177.5554031079</v>
       </c>
       <c r="E6" t="n">
-        <v>48786.89230045384</v>
+        <v>48752.15437501849</v>
       </c>
       <c r="F6" t="n">
-        <v>650230.099874719</v>
+        <v>650195.3619492836</v>
       </c>
       <c r="G6" t="n">
-        <v>650230.099874719</v>
+        <v>650195.3619492833</v>
       </c>
       <c r="H6" t="n">
-        <v>650230.0998747193</v>
+        <v>650195.3619492835</v>
       </c>
       <c r="I6" t="n">
-        <v>650230.099874719</v>
+        <v>650195.3619492834</v>
       </c>
       <c r="J6" t="n">
-        <v>601165.1551461747</v>
+        <v>601130.4172207387</v>
       </c>
       <c r="K6" t="n">
-        <v>587316.4622159002</v>
+        <v>587281.7242904631</v>
       </c>
       <c r="L6" t="n">
-        <v>622354.8462527439</v>
+        <v>622320.1083273091</v>
       </c>
       <c r="M6" t="n">
-        <v>493083.7193231211</v>
+        <v>493048.9813976852</v>
       </c>
       <c r="N6" t="n">
-        <v>650230.0998747193</v>
+        <v>650195.3619492833</v>
       </c>
       <c r="O6" t="n">
-        <v>650230.0998747193</v>
+        <v>650195.3619492834</v>
       </c>
       <c r="P6" t="n">
-        <v>650230.0998747193</v>
+        <v>650195.3619492835</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>758.89962929506</v>
+        <v>758.8996292950631</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594692</v>
+        <v>431.9757039594726</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821554</v>
+        <v>210.4296883821588</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262414</v>
+        <v>94.81103524262107</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039896</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931493</v>
+        <v>244.450116793153</v>
       </c>
       <c r="D4" t="n">
-        <v>110.139252766694</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793149</v>
+        <v>244.450116793153</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666942</v>
+        <v>110.1392527666906</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931493</v>
+        <v>244.450116793153</v>
       </c>
       <c r="L4" t="n">
-        <v>110.139252766694</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>303.1332868360727</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988715</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.6436733987107</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>301.6141614908078</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>29.25133223182956</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27515,16 +27515,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310537</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098447</v>
+        <v>75.18771175430336</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>22.96166244091361</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410622</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760066</v>
+        <v>92.85788772760019</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>216.8009681744408</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>277.8926229469683</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937503</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>56.9714354228436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>222.2619237555689</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304069</v>
+        <v>30.2419391930403</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589179</v>
+        <v>36.91115760589133</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>35.98957650409574</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>112.3859254047819</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>304.6272835584514</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>293.1542301123748</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,10 +27938,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>29.04124425231021</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>142.8541932576071</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.91491433925957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>39.79376420727294</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085666</v>
+        <v>3.050852781085678</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429359</v>
+        <v>31.24454604429371</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286698</v>
+        <v>258.9373162286709</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520261</v>
+        <v>388.0799144520277</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511766</v>
+        <v>481.4474502511786</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968089</v>
+        <v>535.703053396811</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610685</v>
+        <v>544.3712888610708</v>
       </c>
       <c r="O5" t="n">
-        <v>514.034371519148</v>
+        <v>514.03437151915</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860954</v>
+        <v>438.7164434860972</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634649</v>
+        <v>329.4577782634663</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098726</v>
+        <v>191.6431310098734</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898968</v>
+        <v>69.52130774898997</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920251</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868532</v>
+        <v>0.2440682224868542</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030884</v>
+        <v>1.63235014603089</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403512</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062474</v>
+        <v>56.20152915062496</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475933</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316625</v>
+        <v>263.5887514316636</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721882</v>
+        <v>354.4276051721896</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658076</v>
+        <v>413.6002979658093</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468657</v>
+        <v>424.5470671468674</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374445</v>
+        <v>388.3776244374461</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872484</v>
+        <v>311.7072835872496</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547493</v>
+        <v>208.3680642547502</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632158</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947714</v>
+        <v>30.32018801947726</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378867</v>
+        <v>6.579516597378894</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236993</v>
+        <v>1.368507528236999</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377982</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734523</v>
+        <v>41.1547536673454</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635542</v>
+        <v>96.75348224635582</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260797</v>
+        <v>158.9956928260804</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162527</v>
+        <v>203.4597465162535</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399134</v>
+        <v>214.5197755399142</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528484</v>
+        <v>209.4189747528492</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275344</v>
+        <v>193.4323186275351</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514996</v>
+        <v>165.5147650515002</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054698</v>
+        <v>61.53307486054722</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391196</v>
+        <v>23.84935392391205</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830788</v>
+        <v>5.847259438830812</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656335</v>
+        <v>0.07464586517656366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>744.7005224868051</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32257,7 +32257,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>748.8168776781358</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,31 +33023,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>165.3312853305619</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>170.9292585737929</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>342.8454457931495</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,7 +33746,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8027404478649</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34208,10 +34208,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>276.96469254416</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34451,13 +34451,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>300.768778117042</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198349</v>
+        <v>77.89141170198457</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070456</v>
+        <v>167.9900634070471</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811894</v>
+        <v>245.6810352811913</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695361</v>
+        <v>305.3568201695383</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644776</v>
+        <v>314.9582252644798</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974612</v>
+        <v>283.9361600974632</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308259</v>
+        <v>207.4834477308277</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890155</v>
+        <v>107.1520883890168</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.3836649809266</v>
+        <v>27.38366498092722</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573035</v>
+        <v>125.7473124573046</v>
       </c>
       <c r="L6" t="n">
-        <v>215.873225392314</v>
+        <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437893</v>
+        <v>271.466264043791</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635324</v>
+        <v>293.2053550635341</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930001</v>
+        <v>245.7813799930016</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729181</v>
+        <v>177.7328761729194</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872781</v>
+        <v>68.38629016872864</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554435</v>
+        <v>29.98243465554498</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501438</v>
+        <v>68.57507023501518</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230833</v>
+        <v>75.59399159230918</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761519</v>
+        <v>81.73343028761605</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569157</v>
+        <v>54.97578017569234</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235194</v>
+        <v>27.78676100235262</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>613.3588104034718</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>617.4751655948025</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36671,31 +36671,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.34951124454038</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>44.09163190712619</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>205.0040068187905</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,7 +37394,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>310.2064960034205</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37856,10 +37856,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>150.1270658774933</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>169.4270660337087</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
